--- a/data/trans_orig/P1801_2016_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1801_2016_2023-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>332437</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>307175</v>
+        <v>307365</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>360290</v>
+        <v>357902</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4926448382617735</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4552096450126418</v>
+        <v>0.4554897967915776</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5339205073746668</v>
+        <v>0.5303818657418558</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>404</v>
@@ -763,19 +763,19 @@
         <v>412159</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>390421</v>
+        <v>385955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>438780</v>
+        <v>438981</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6125668454300823</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.580259853657811</v>
+        <v>0.573621483372183</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.652131759184159</v>
+        <v>0.6524308880180398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>730</v>
@@ -784,19 +784,19 @@
         <v>744596</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>708188</v>
+        <v>705183</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>782086</v>
+        <v>778219</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5525185902562791</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5255027000219101</v>
+        <v>0.5232728855671542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5803379729284721</v>
+        <v>0.5774682585476199</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>342363</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>314510</v>
+        <v>316898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>367625</v>
+        <v>367435</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5073551617382265</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4660794926253332</v>
+        <v>0.4696181342581442</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5447903549873581</v>
+        <v>0.5445102032084225</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>262</v>
@@ -834,19 +834,19 @@
         <v>260680</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>234059</v>
+        <v>233858</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282418</v>
+        <v>286884</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3874331545699176</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3478682408158411</v>
+        <v>0.3475691119819599</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4197401463421891</v>
+        <v>0.4263785166278169</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>588</v>
@@ -855,19 +855,19 @@
         <v>603043</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>565553</v>
+        <v>569420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>639451</v>
+        <v>642456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4474814097437209</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4196620270715279</v>
+        <v>0.4225317414523801</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4744972999780898</v>
+        <v>0.4767271144328458</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>454680</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>424718</v>
+        <v>422851</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>488482</v>
+        <v>489276</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4447049126671202</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4154004781328713</v>
+        <v>0.413574195406559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4777649790803915</v>
+        <v>0.4785413642870086</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>541</v>
@@ -980,19 +980,19 @@
         <v>586986</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>554135</v>
+        <v>553012</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>620202</v>
+        <v>619469</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5628335047164009</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5313343184906885</v>
+        <v>0.5302570592584895</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5946820848952439</v>
+        <v>0.5939793200379345</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>969</v>
@@ -1001,19 +1001,19 @@
         <v>1041666</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>996272</v>
+        <v>994132</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1086066</v>
+        <v>1088754</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.504354949137884</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4823756169120149</v>
+        <v>0.4813397290596676</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5258521322928597</v>
+        <v>0.527154002962089</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>567751</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>533949</v>
+        <v>533155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>597713</v>
+        <v>599580</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5552950873328798</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5222350209196086</v>
+        <v>0.5214586357129913</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5845995218671288</v>
+        <v>0.586425804593441</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>436</v>
@@ -1051,19 +1051,19 @@
         <v>455927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>422711</v>
+        <v>423444</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>488778</v>
+        <v>489901</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.437166495283599</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.405317915104756</v>
+        <v>0.4060206799620656</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4686656815093114</v>
+        <v>0.4697429407415109</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>959</v>
@@ -1072,19 +1072,19 @@
         <v>1023678</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>979278</v>
+        <v>976590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1069072</v>
+        <v>1071212</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.495645050862116</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4741478677071404</v>
+        <v>0.4728459970379111</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5176243830879851</v>
+        <v>0.5186602709403325</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>352014</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>324513</v>
+        <v>322541</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>381796</v>
+        <v>379239</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.463449764110279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4272427756847285</v>
+        <v>0.424646244184607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5026588546509619</v>
+        <v>0.4992924296337302</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>433</v>
@@ -1197,19 +1197,19 @@
         <v>469220</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>437017</v>
+        <v>442995</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>495801</v>
+        <v>498215</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5977235624081447</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5567013596185142</v>
+        <v>0.564317321611694</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6315848757947806</v>
+        <v>0.6346598813584742</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>756</v>
@@ -1218,19 +1218,19 @@
         <v>821234</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>784797</v>
+        <v>772790</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>864520</v>
+        <v>859477</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.531693263273209</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5081029988616689</v>
+        <v>0.5003292321969616</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.559718224623476</v>
+        <v>0.5564529602864836</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>407538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>377756</v>
+        <v>380313</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>435039</v>
+        <v>437011</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5365502358897211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4973411453490381</v>
+        <v>0.5007075703662698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5727572243152714</v>
+        <v>0.5753537558153931</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>303</v>
@@ -1268,19 +1268,19 @@
         <v>315791</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289210</v>
+        <v>286796</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>347994</v>
+        <v>342016</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4022764375918553</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3684151242052194</v>
+        <v>0.3653401186415258</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4432986403814858</v>
+        <v>0.435682678388306</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>676</v>
@@ -1289,19 +1289,19 @@
         <v>723329</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>680043</v>
+        <v>685086</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>759766</v>
+        <v>771773</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.468306736726791</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.440281775376524</v>
+        <v>0.4435470397135164</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4918970011383312</v>
+        <v>0.4996707678030384</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>439620</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>409307</v>
+        <v>410683</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>471509</v>
+        <v>471848</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4688942424700266</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4365629721000607</v>
+        <v>0.4380301280818537</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5029071493986816</v>
+        <v>0.5032681781038174</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>500</v>
@@ -1414,19 +1414,19 @@
         <v>556399</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>523450</v>
+        <v>523733</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>592098</v>
+        <v>591602</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5330620881377202</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5014949092379765</v>
+        <v>0.5017663007964686</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5672633835380128</v>
+        <v>0.5667889593737594</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>942</v>
@@ -1435,19 +1435,19 @@
         <v>996019</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>949897</v>
+        <v>953164</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1041552</v>
+        <v>1036562</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5026980557350977</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4794199123659222</v>
+        <v>0.4810689947561699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5256792372167974</v>
+        <v>0.5231604759471601</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>497947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>466058</v>
+        <v>465719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>528260</v>
+        <v>526884</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5311057575299734</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4970928506013184</v>
+        <v>0.4967318218961826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5634370278999392</v>
+        <v>0.5619698719181466</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>459</v>
@@ -1485,19 +1485,19 @@
         <v>487380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>451681</v>
+        <v>452177</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>520329</v>
+        <v>520046</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4669379118622799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4327366164619874</v>
+        <v>0.4332110406262409</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4985050907620237</v>
+        <v>0.4982336992035315</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>949</v>
@@ -1506,19 +1506,19 @@
         <v>985327</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>939794</v>
+        <v>944784</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1031449</v>
+        <v>1028182</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4973019442649022</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4743207627832026</v>
+        <v>0.4768395240528399</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5205800876340778</v>
+        <v>0.5189310052438301</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>1578751</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1519174</v>
+        <v>1520781</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1632380</v>
+        <v>1642791</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4651113728299096</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4475595343901225</v>
+        <v>0.4480329564789878</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4809109046290754</v>
+        <v>0.4839781006018267</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1878</v>
@@ -1631,19 +1631,19 @@
         <v>2024764</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1961045</v>
+        <v>1965910</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2085275</v>
+        <v>2082902</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5712342602635669</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5532577037495738</v>
+        <v>0.5546300577004409</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5883057871641788</v>
+        <v>0.5876364796677144</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3397</v>
@@ -1652,19 +1652,19 @@
         <v>3603515</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3525935</v>
+        <v>3518535</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3683798</v>
+        <v>3682806</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5193213263810103</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5081409029750081</v>
+        <v>0.507074423162391</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5308913670540194</v>
+        <v>0.5307484382959128</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>1815599</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1761970</v>
+        <v>1751559</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1875176</v>
+        <v>1873569</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5348886271700904</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5190890953709245</v>
+        <v>0.5160218993981732</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5524404656098776</v>
+        <v>0.5519670435210122</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1460</v>
@@ -1702,19 +1702,19 @@
         <v>1519778</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1459267</v>
+        <v>1461640</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1583497</v>
+        <v>1578632</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.428765739736433</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4116942128358212</v>
+        <v>0.4123635203322856</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4467422962504261</v>
+        <v>0.4453699422995591</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3172</v>
@@ -1723,19 +1723,19 @@
         <v>3335377</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3255094</v>
+        <v>3256086</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3412957</v>
+        <v>3420357</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4806786736189897</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4691086329459807</v>
+        <v>0.4692515617040873</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4918590970249918</v>
+        <v>0.4929255768376091</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>349910</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>319355</v>
+        <v>320082</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>378349</v>
+        <v>377044</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.506595247760638</v>
+        <v>0.5065952477606381</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4623582453965455</v>
+        <v>0.4634102331657166</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5477682670599424</v>
+        <v>0.5458783378552821</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>745</v>
@@ -2088,19 +2088,19 @@
         <v>410360</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>388651</v>
+        <v>388314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>432302</v>
+        <v>433066</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5601616792571276</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5305266866313214</v>
+        <v>0.5300668858423121</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5901130331113702</v>
+        <v>0.5911554055812724</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1169</v>
@@ -2109,19 +2109,19 @@
         <v>760271</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>724246</v>
+        <v>722685</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>800170</v>
+        <v>797493</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5341662875751639</v>
+        <v>0.534166287575164</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5088550006744459</v>
+        <v>0.5077584490795143</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5621993569777423</v>
+        <v>0.560318724203437</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>340800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>312361</v>
+        <v>313666</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>371355</v>
+        <v>370628</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4934047522393619</v>
+        <v>0.493404752239362</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4522317329400575</v>
+        <v>0.4541216621447178</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5376417546034545</v>
+        <v>0.5365897668342829</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>493</v>
@@ -2159,19 +2159,19 @@
         <v>322215</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>300273</v>
+        <v>299509</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>343924</v>
+        <v>344261</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4398383207428725</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4098869668886297</v>
+        <v>0.4088445944187274</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4694733133686788</v>
+        <v>0.4699331141576877</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>799</v>
@@ -2180,19 +2180,19 @@
         <v>663014</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>623115</v>
+        <v>625792</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>699039</v>
+        <v>700600</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.465833712424836</v>
+        <v>0.4658337124248361</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4378006430222577</v>
+        <v>0.4396812757965625</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4911449993255539</v>
+        <v>0.4922415509204856</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>509539</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>472188</v>
+        <v>475571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>542825</v>
+        <v>546322</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4862721910214907</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4506272535416478</v>
+        <v>0.45385510326175</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5180380302027103</v>
+        <v>0.5213757451082831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>939</v>
@@ -2305,19 +2305,19 @@
         <v>622446</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>593152</v>
+        <v>594398</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>649718</v>
+        <v>651957</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5817531962996466</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5543744016417023</v>
+        <v>0.5555387349313977</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6072423752925783</v>
+        <v>0.6093349249157879</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1461</v>
@@ -2326,19 +2326,19 @@
         <v>1131985</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1087475</v>
+        <v>1087544</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1180717</v>
+        <v>1181268</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5345109444104057</v>
+        <v>0.5345109444104056</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5134938112531701</v>
+        <v>0.5135265172585834</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5575217999108569</v>
+        <v>0.5577817013644036</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>538308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>505022</v>
+        <v>501525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>575659</v>
+        <v>572276</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5137278089785092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4819619697972896</v>
+        <v>0.4786242548917168</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5493727464583522</v>
+        <v>0.54614489673825</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>576</v>
@@ -2376,19 +2376,19 @@
         <v>447503</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>420231</v>
+        <v>417992</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>476797</v>
+        <v>475551</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4182468037003534</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3927576247074219</v>
+        <v>0.3906650750842121</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4456255983582979</v>
+        <v>0.4444612650686025</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1017</v>
@@ -2397,19 +2397,19 @@
         <v>985811</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>937079</v>
+        <v>936528</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1030321</v>
+        <v>1030252</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4654890555895944</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4424782000891431</v>
+        <v>0.4422182986355968</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4865061887468303</v>
+        <v>0.4864734827414166</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>322515</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>294283</v>
+        <v>292071</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>354741</v>
+        <v>355213</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4021649668612572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3669612062939245</v>
+        <v>0.3642032393152511</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4423504211786992</v>
+        <v>0.4429384504608557</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>545</v>
@@ -2522,19 +2522,19 @@
         <v>397119</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>371504</v>
+        <v>370239</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>424611</v>
+        <v>422394</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4907019653762374</v>
+        <v>0.4907019653762375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4590503255021605</v>
+        <v>0.4574870200453792</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5246722265266094</v>
+        <v>0.5219330409933119</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>860</v>
@@ -2543,19 +2543,19 @@
         <v>719634</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>679671</v>
+        <v>678114</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>762233</v>
+        <v>759737</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4466352049354844</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4218328538097496</v>
+        <v>0.4208663440502858</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4730739106715487</v>
+        <v>0.4715249018577057</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>479431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>447205</v>
+        <v>446733</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>507663</v>
+        <v>509875</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5978350331387428</v>
+        <v>0.5978350331387429</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5576495788213007</v>
+        <v>0.5570615495391443</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6330387937060755</v>
+        <v>0.6357967606847488</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>499</v>
@@ -2593,19 +2593,19 @@
         <v>412169</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>384677</v>
+        <v>386894</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>437784</v>
+        <v>439049</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5092980346237626</v>
+        <v>0.5092980346237624</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4753277734733906</v>
+        <v>0.4780669590066881</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5409496744978395</v>
+        <v>0.542512979954621</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>859</v>
@@ -2614,19 +2614,19 @@
         <v>891600</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>849001</v>
+        <v>851497</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>931563</v>
+        <v>933120</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5533647950645155</v>
+        <v>0.5533647950645156</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5269260893284518</v>
+        <v>0.5284750981422944</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5781671461902506</v>
+        <v>0.5791336559497142</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>509697</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>477542</v>
+        <v>476325</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>541602</v>
+        <v>543809</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5153739587428807</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.482860728632153</v>
+        <v>0.4816310712104929</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5476344326407359</v>
+        <v>0.5498663803539434</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>982</v>
@@ -2739,19 +2739,19 @@
         <v>654638</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>627289</v>
+        <v>620743</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>684617</v>
+        <v>682625</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5866168487134537</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5621096603707968</v>
+        <v>0.5562436868320425</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6134806866271328</v>
+        <v>0.6116958205052896</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1569</v>
@@ -2760,19 +2760,19 @@
         <v>1164335</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1115182</v>
+        <v>1122125</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1208497</v>
+        <v>1213148</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5531441167597755</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.529793178205745</v>
+        <v>0.5330912564176444</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5741245410356143</v>
+        <v>0.5763341530265426</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>479287</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>447382</v>
+        <v>445175</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>511442</v>
+        <v>512659</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4846260412571192</v>
+        <v>0.4846260412571193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4523655673592641</v>
+        <v>0.4501336196460564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.517139271367847</v>
+        <v>0.518368928789507</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>575</v>
@@ -2810,19 +2810,19 @@
         <v>461317</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>431338</v>
+        <v>433330</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>488666</v>
+        <v>495212</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4133831512865463</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.386519313372867</v>
+        <v>0.3883041794947105</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4378903396292031</v>
+        <v>0.4437563131679574</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>993</v>
@@ -2831,19 +2831,19 @@
         <v>940604</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>896442</v>
+        <v>891791</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>989757</v>
+        <v>982814</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4468558832402245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4258754589643855</v>
+        <v>0.4236658469734573</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4702068217942548</v>
+        <v>0.4669087435823551</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>1691660</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1629004</v>
+        <v>1628141</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1757002</v>
+        <v>1758829</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4792935760145582</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.461541466958131</v>
+        <v>0.4612968740448078</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4978068023987729</v>
+        <v>0.4983244264451837</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3211</v>
@@ -2956,19 +2956,19 @@
         <v>2084564</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2029767</v>
+        <v>2033412</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2136705</v>
+        <v>2142177</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5591990862763218</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5444992205222429</v>
+        <v>0.5454772121436779</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5731862402268891</v>
+        <v>0.5746539274091514</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5059</v>
@@ -2977,19 +2977,19 @@
         <v>3776224</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3687262</v>
+        <v>3690938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3858273</v>
+        <v>3859759</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5203379198049807</v>
+        <v>0.5203379198049808</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5080794586278856</v>
+        <v>0.5085860506135231</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5316435867351338</v>
+        <v>0.5318484129088118</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>1837826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1772484</v>
+        <v>1770657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1900482</v>
+        <v>1901345</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5207064239854419</v>
+        <v>0.5207064239854418</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.502193197601227</v>
+        <v>0.5016755735548163</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5384585330418689</v>
+        <v>0.5387031259551921</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2143</v>
@@ -3027,19 +3027,19 @@
         <v>1643204</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1591063</v>
+        <v>1585591</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1698001</v>
+        <v>1694356</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4408009137236782</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4268137597731108</v>
+        <v>0.4253460725908484</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4555007794777571</v>
+        <v>0.454522787856322</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3668</v>
@@ -3048,19 +3048,19 @@
         <v>3481030</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3398981</v>
+        <v>3397495</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3569992</v>
+        <v>3566316</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4796620801950193</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4683564132648663</v>
+        <v>0.4681515870911883</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4919205413721146</v>
+        <v>0.4914139493864768</v>
       </c>
     </row>
     <row r="18">
